--- a/acc2.xlsx
+++ b/acc2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus18.TRANSITUS18-PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01F9E22-E14E-4EC3-BD5D-80B0D729B1A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAAD228-5479-4BEC-A2DF-7A2E4D1D6611}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SF_acc" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="119">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -471,7 +471,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table11" displayName="Table11" ref="A1:J30" totalsRowShown="0">
-  <autoFilter ref="A1:J30" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <autoFilter ref="A1:J30" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="TestCaseID"/>
@@ -775,7 +781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -1052,7 +1058,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1119,8 +1127,11 @@
       <c r="H2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>54</v>
       </c>
@@ -1131,7 +1142,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>57</v>
       </c>
@@ -1142,7 +1153,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>60</v>
       </c>
@@ -1153,7 +1164,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>63</v>
       </c>
@@ -1164,7 +1175,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>66</v>
       </c>
@@ -1175,7 +1186,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>69</v>
       </c>
@@ -1186,7 +1197,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>72</v>
       </c>
@@ -1197,7 +1208,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>75</v>
       </c>
@@ -1208,7 +1219,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>78</v>
       </c>
@@ -1219,7 +1230,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>81</v>
       </c>
@@ -1230,7 +1241,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>84</v>
       </c>
@@ -1241,7 +1252,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>87</v>
       </c>
@@ -1252,7 +1263,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>88</v>
       </c>
@@ -1263,7 +1274,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>91</v>
       </c>
@@ -1274,7 +1285,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>94</v>
       </c>
@@ -1285,7 +1296,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>97</v>
       </c>
@@ -1296,7 +1307,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>100</v>
       </c>
@@ -1307,7 +1318,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1326,8 +1337,11 @@
       <c r="H20" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>54</v>
       </c>
@@ -1338,7 +1352,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>57</v>
       </c>
@@ -1349,7 +1363,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>60</v>
       </c>
@@ -1360,7 +1374,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>63</v>
       </c>
@@ -1371,7 +1385,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>66</v>
       </c>
@@ -1382,7 +1396,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>69</v>
       </c>
@@ -1393,7 +1407,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>72</v>
       </c>
@@ -1404,7 +1418,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>78</v>
       </c>
@@ -1415,7 +1429,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>81</v>
       </c>
@@ -1426,7 +1440,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>84</v>
       </c>
